--- a/WebCrawling/jianshuauthors.xlsx
+++ b/WebCrawling/jianshuauthors.xlsx
@@ -471,323 +471,323 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>101688</t>
+          <t>101867</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>925</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1102256</t>
+          <t>1103678</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4720</t>
+          <t>4738</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1788</t>
+          <t>1789</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>念远怀人</t>
+          <t>简书钻首席小管家</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>264352</t>
+          <t>154465</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>411</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>653587</t>
+          <t>378136</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14261</t>
+          <t>101881</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13000.0</t>
+          <t>79.9w</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>卢璐说</t>
+          <t>没文化的野狐狸</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>129817</t>
+          <t>81377</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>191</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1771806</t>
+          <t>329176</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>33151</t>
+          <t>6196</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5848</t>
+          <t>2242</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hobbit霍比特人</t>
+          <t>念远怀人</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>79158</t>
+          <t>264515</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>273</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>352478</t>
+          <t>647603</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>14266</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1.3w</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>没文化的野狐狸</t>
+          <t>卢璐说</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>81206</t>
+          <t>129977</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>508</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>328272</t>
+          <t>1771806</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6193</t>
+          <t>33154</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2238</t>
+          <t>5848</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>宇文歡</t>
+          <t>Hobbit霍比特人</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>131610</t>
+          <t>79415</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>112</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>133440</t>
+          <t>350004</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>1550</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>乔汉童</t>
+          <t>宇文歡</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>138298</t>
+          <t>131764</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>200100</t>
+          <t>133440</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>849</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>梅拾璎</t>
+          <t>乔汉童</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>212416</t>
+          <t>138453</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>260293</t>
+          <t>200100</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>30762</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9207</t>
+          <t>1577</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>简书钻首席小管家</t>
+          <t>梅拾璎</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>154261</t>
+          <t>212569</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>118</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>380547</t>
+          <t>260293</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>101758</t>
+          <t>30766</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>799000.0</t>
+          <t>9207</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>198629</t>
+          <t>198636</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -819,12 +819,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19612</t>
+          <t>19617</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13000.0</t>
+          <t>1.3w</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>70679</t>
+          <t>70690</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9422</t>
+          <t>9426</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -878,27 +878,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>320982</t>
+          <t>320989</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>284</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>718469</t>
+          <t>720428</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>25076</t>
+          <t>25077</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>114000.0</t>
+          <t>11.4w</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>68665</t>
+          <t>68675</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>77838</t>
+          <t>77847</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>896</t>
         </is>
       </c>
     </row>
@@ -989,17 +989,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>297790</t>
+          <t>297785</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>396</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>768382</t>
+          <t>757460</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>108815</t>
+          <t>108818</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>133509</t>
+          <t>131934</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1063,22 +1063,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111861</t>
+          <t>111864</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>254732</t>
+          <t>253117</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4711</t>
+          <t>4712</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>117680</t>
+          <t>117685</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1137,17 +1137,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>146236</t>
+          <t>146245</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>492113</t>
+          <t>488354</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1174,17 +1174,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>173138</t>
+          <t>173142</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>338669</t>
+          <t>336023</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>282656</t>
+          <t>282657</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>119920</t>
+          <t>119925</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>

--- a/WebCrawling/jianshuauthors.xlsx
+++ b/WebCrawling/jianshuauthors.xlsx
@@ -461,851 +461,851 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>董克平日记</t>
+          <t>青冥浩荡不见底</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>101867</t>
+          <t>17325</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1103678</t>
+          <t>51052</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4738</t>
+          <t>152</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>202</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>简书钻首席小管家</t>
+          <t>卢璐说</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>154465</t>
+          <t>130379</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>378136</t>
+          <t>1740997</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>101881</t>
+          <t>33197</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>79.9w</t>
+          <t>5852</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>没文化的野狐狸</t>
+          <t>董克平日记</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>81377</t>
+          <t>102284</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>934</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>329176</t>
+          <t>1112401</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6196</t>
+          <t>4785</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2242</t>
+          <t>1794</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>念远怀人</t>
+          <t>简书钻首席小管家</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>264515</t>
+          <t>154991</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>418</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>647603</t>
+          <t>417720</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14266</t>
+          <t>102121</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3w</t>
+          <t>799000.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>卢璐说</t>
+          <t>没文化的野狐狸</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>129977</t>
+          <t>81794</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>193</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1771806</t>
+          <t>333214</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>33154</t>
+          <t>6202</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5848</t>
+          <t>2245</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hobbit霍比特人</t>
+          <t>吴晓布</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>79415</t>
+          <t>321168</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>285</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>350004</t>
+          <t>729034</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>25093</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>114000.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>宇文歡</t>
+          <t>念远怀人</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>131764</t>
+          <t>264884</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>272</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>133440</t>
+          <t>644768</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>14270</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>13000.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>乔汉童</t>
+          <t>Hobbit霍比特人</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>138453</t>
+          <t>79989</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>113</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>200100</t>
+          <t>357208</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>1552</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>梅拾璎</t>
+          <t>宇文歡</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>212569</t>
+          <t>132115</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>260293</t>
+          <t>133440</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>30766</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9207</t>
+          <t>849</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>名贵的考拉熊</t>
+          <t>乔汉童</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>198636</t>
+          <t>138779</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>267784</t>
+          <t>197995</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19617</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.3w</t>
+          <t>1577</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>王小麦</t>
+          <t>梅拾璎</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>70690</t>
+          <t>212778</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>118</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>158183</t>
+          <t>260293</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9426</t>
+          <t>30774</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>9208</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吴晓布</t>
+          <t>名贵的考拉熊</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>320989</t>
+          <t>198667</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>720428</t>
+          <t>267784</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>25077</t>
+          <t>19617</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11.4w</t>
+          <t>13000.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>旸晓昆</t>
+          <t>王小麦</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>68675</t>
+          <t>70748</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>133086</t>
+          <t>162278</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>9432</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1018</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>王老师八卦美术史</t>
+          <t>旸晓昆</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>68706</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>77847</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>110804</t>
+          <t>133086</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>448</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>798</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>格列柯南</t>
+          <t>王老师八卦美术史</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>297785</t>
+          <t>77881</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>757460</t>
+          <t>108708</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18072</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3421</t>
+          <t>897</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>老沈1</t>
+          <t>格列柯南</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>108818</t>
+          <t>297797</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>393</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>131934</t>
+          <t>752643</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>18076</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>3421</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>闫泽华</t>
+          <t>老沈1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111864</t>
+          <t>108835</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>253117</t>
+          <t>131934</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4712</t>
+          <t>769</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>438</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>只有一半影子的人</t>
+          <t>闫泽华</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>117685</t>
+          <t>111885</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>147</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>273734</t>
+          <t>251693</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>4712</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>2059</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>阿栈</t>
+          <t>只有一半影子的人</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>474</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>146245</t>
+          <t>117708</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>488354</t>
+          <t>273734</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1308</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>穿着prada挤地铁</t>
+          <t>阿栈</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>173142</t>
+          <t>146265</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>336023</t>
+          <t>484237</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1834</t>
+          <t>1281</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>三儿王屿</t>
+          <t>穿着prada挤地铁</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>122364</t>
+          <t>173161</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>178325</t>
+          <t>330789</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>5535</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5692</t>
+          <t>1834</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>无限猴子</t>
+          <t>三儿王屿</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>362</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>282657</t>
+          <t>122384</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>91</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>441457</t>
+          <t>178325</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2414</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>5692</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>晖宗聊绘画</t>
+          <t>无限猴子</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>119925</t>
+          <t>282661</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>173129</t>
+          <t>441457</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2724</t>
+          <t>2414</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1253</t>
         </is>
       </c>
     </row>
